--- a/Excel/Agentincentive.xlsx
+++ b/Excel/Agentincentive.xlsx
@@ -132,7 +132,7 @@
     <t>Agent Incentive</t>
   </si>
   <si>
-    <t>AG103</t>
+    <t>AG1034</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
